--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,664 +512,904 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>000363</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>008370</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006534</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理永盛定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000336</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银研究精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理区间精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000259</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>农银区间收益混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>71.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006534</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银汇理永盛定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005262</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005263</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008078</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>农银汇理区间精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>83.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000362</t>
+          <t>002190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
+          <t>农银汇理新能源主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>116.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000363</t>
+          <t>001606</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
+          <t>农银汇理工业4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>50.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004010</t>
+          <t>000362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合A</t>
+          <t>国泰聚信价值优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>53.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004011</t>
+          <t>000336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞鼎利灵活配置混合C</t>
+          <t>农银研究精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008078</t>
+          <t>000363</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银汇理区间精选灵活配置混合</t>
+          <t>国泰聚信价值优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.86</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>020022</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰策略价值灵活配置混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000259</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银区间收益混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>53.86</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000336</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农银研究精选混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000757</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华富智慧城市灵活配置混合</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>460002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>华泰柏瑞积极成长混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>460002</t>
+          <t>020022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合A</t>
+          <t>国泰策略价值灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>960030</t>
+          <t>010460</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极成长混合H</t>
+          <t>兴业研究精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006977</t>
+          <t>000259</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>农银汇理海棠三年定期开放混合</t>
+          <t>农银区间收益混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>53.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1752,15 +2202,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>23.71</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002091</t>
+          <t>004010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰柏瑞新利灵活配置混合C</t>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001606</t>
+          <t>000757</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
+          <t>华富智慧城市灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>002091</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>华泰柏瑞新利灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>161727</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大成产业升级股票(LOF)</t>
+          <t>招商增荣灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002190</t>
+          <t>008078</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>农银汇理新能源主题灵活配置混合</t>
+          <t>农银汇理区间精选灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>161727</t>
+          <t>004011</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商增荣灵活配置混合(LOF)</t>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>58.88</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2134,26 +2724,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>960030</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2732,7 +2733,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -2748,6 +2748,1048 @@
       </c>
       <c r="H35" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3931</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3795,4 +3796,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4791</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4496,4 +4497,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4505,7 +4506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4516,17 +4517,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4536,14 +4557,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.65</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4552,14 +4595,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.94</v>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4568,14 +4633,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.02</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4584,13 +4671,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5094,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5105,17 +5106,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5125,14 +5146,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.71</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3414</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5141,14 +5184,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.65</v>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5157,14 +5222,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.94</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5173,14 +5260,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.02</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5189,13 +5298,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0602</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5531,7 +5532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5542,17 +5543,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5562,14 +5583,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.199999999999999</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5578,14 +5621,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.71</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7124</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5594,14 +5659,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.65</v>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5610,14 +5697,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.94</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5626,14 +5735,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.02</v>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5642,13 +5773,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>13.71</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>9.199999999999999</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>14.71</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>14.65</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>26.94</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>22.02</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.78</v>
       </c>
     </row>
@@ -600,6 +617,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2835,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3877,7 +4860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5218,7 +6201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603308-应流股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>15.42</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>13.71</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.199999999999999</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>14.71</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>14.65</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>26.94</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>22.02</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1992</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006534</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理永盛定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理区间精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>016709</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>泉果旭源三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.92</t>
+          <t>85.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>67.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2010</t>
+          <t>4.9072</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000336</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银研究精选混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.76</t>
+          <t>36.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5853</t>
+          <t>3.6477</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001606</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.20</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5085</t>
+          <t>2.0294</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>001606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>农银汇理工业4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.78</t>
+          <t>39.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>81.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.0136</t>
+          <t>1.7096</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +1820,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0762</t>
+          <t>1.4586</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1848,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>090001</t>
+          <t>000336</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成价值增长混合</t>
+          <t>农银研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64.34</t>
+          <t>88.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9759</t>
+          <t>1.4320</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1886,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>长信金利趋势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>43.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>86.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5619</t>
+          <t>1.2333</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1924,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>090001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰估值优势混合（LOF）A</t>
+          <t>大成价值增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>12.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>66.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4890</t>
+          <t>1.1064</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1962,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>016710</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>泉果旭源三年持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>67.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4660</t>
+          <t>0.7155</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2000,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3379</t>
+          <t>0.5956</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2038,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2876</t>
+          <t>0.5493</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +2076,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰估值优势混合（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2774</t>
+          <t>0.4840</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1129,32 +2114,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160919</t>
+          <t>015039</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成产业升级股票（LOF）</t>
+          <t>长信金利趋势混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>15.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.12</t>
+          <t>86.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2038</t>
+          <t>0.4223</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1167,36 +2152,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011815</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒越优势精选混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0992</t>
+          <t>0.3828</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +2190,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>012147</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国大盘核心资产混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.23</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0734</t>
+          <t>0.2765</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +2228,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011458</t>
+          <t>160919</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方鑫享价值成长一年持有期混合A</t>
+          <t>大成产业升级股票（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.2313</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1281,32 +2266,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>014267</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商竞争力优选混合A</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.2302</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1319,36 +2304,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>012147</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合A</t>
+          <t>富国大盘核心资产混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>61.62</t>
+          <t>72.15</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +2342,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>013028</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恒越品质生活混合</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2380,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011459</t>
+          <t>014352</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方鑫享价值成长一年持有期混合C</t>
+          <t>东方创新成长混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +2418,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>560006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>益民核心增长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>77.58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +2456,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>016563</t>
+          <t>014125</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合C</t>
+          <t>华夏中证1000指数增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>61.62</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +2494,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>014268</t>
+          <t>014353</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华商竞争力优选混合C</t>
+          <t>东方创新成长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1562,19 +2547,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1583,6 +2568,972 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9759</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +4481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3118,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,7 +5769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4860,7 +6811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6199,972 +8150,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000362</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3444</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5417</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000336</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银研究精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3112</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1992</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000363</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰聚信价值优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8322</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007835</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰鑫睿混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8226</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6873</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6487</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4748</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3460</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2709</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000259</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银区间收益混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1026</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005262</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006534</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>农银汇理永盛定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008078</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>农银汇理区间精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.99</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005263</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>71.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>